--- a/CISC360 results.xlsx
+++ b/CISC360 results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="0" windowWidth="17280" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="900" windowWidth="24740" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="32">
   <si>
     <t>Graph</t>
   </si>
@@ -33,9 +33,6 @@
     <t>bellman-Ford memory</t>
   </si>
   <si>
-    <t>Floyd Warshall Memory</t>
-  </si>
-  <si>
     <t>Density (edges)</t>
   </si>
   <si>
@@ -48,18 +45,6 @@
     <t>Bellman-Ford time(ns)</t>
   </si>
   <si>
-    <t>end of liz</t>
-  </si>
-  <si>
-    <t>end of second</t>
-  </si>
-  <si>
-    <t>end of first liz</t>
-  </si>
-  <si>
-    <t>end of second liz</t>
-  </si>
-  <si>
     <t>Dense (90)</t>
   </si>
   <si>
@@ -78,7 +63,58 @@
     <t>floyd</t>
   </si>
   <si>
-    <t>end of liz three</t>
+    <t>graph 1</t>
+  </si>
+  <si>
+    <t>graph 2</t>
+  </si>
+  <si>
+    <t>graph 3</t>
+  </si>
+  <si>
+    <t>graph 4</t>
+  </si>
+  <si>
+    <t>graph 5</t>
+  </si>
+  <si>
+    <t>graph 6</t>
+  </si>
+  <si>
+    <t>graph 7</t>
+  </si>
+  <si>
+    <t>graph 8</t>
+  </si>
+  <si>
+    <t>graph 9</t>
+  </si>
+  <si>
+    <t>graph 10</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Liz</t>
+  </si>
+  <si>
+    <t>end of julie three</t>
+  </si>
+  <si>
+    <t>end of second julie test</t>
+  </si>
+  <si>
+    <t>end of first julie test</t>
+  </si>
+  <si>
+    <t>end of liz test</t>
+  </si>
+  <si>
+    <t>end of second liz test</t>
+  </si>
+  <si>
+    <t>end of first liz test</t>
   </si>
 </sst>
 </file>
@@ -127,8 +163,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -165,7 +209,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -181,6 +225,10 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -196,6 +244,10 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -538,21 +590,21 @@
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="21.1640625" customWidth="1"/>
-    <col min="9" max="9" width="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="19.1640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="20.1640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="20.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="17" max="17" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,46 +612,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -607,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>2584</v>
@@ -619,33 +665,30 @@
       <c r="H2" s="1">
         <v>14248</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:K11" si="0">(D2 +D13+D24)/3</f>
+        <v>2793.6666666666665</v>
+      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1">
-        <f>(D2 +D13+D24)/3</f>
-        <v>2793.6666666666665</v>
+        <f t="shared" ref="M2:M11" si="1">(F2 +F13+F24)/3</f>
+        <v>19347</v>
       </c>
       <c r="N2" s="1"/>
-      <c r="O2" s="1">
-        <f>(F2 +F13+F24)/3</f>
-        <v>19347</v>
-      </c>
-      <c r="P2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1">
+        <f t="shared" ref="P2:P11" si="2">(H2 +H13+H24)/3</f>
+        <v>15063</v>
+      </c>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1">
-        <f>(H2 +H13+H24)/3</f>
-        <v>15063</v>
-      </c>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
@@ -653,7 +696,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>96724</v>
@@ -665,33 +708,30 @@
       <c r="H3" s="1">
         <v>3966885</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>426100.66666666669</v>
+      </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1">
-        <f>(D3 +D14+D25)/3</f>
-        <v>426100.66666666669</v>
+        <f t="shared" si="1"/>
+        <v>5735137</v>
       </c>
       <c r="N3" s="1"/>
-      <c r="O3" s="1">
-        <f>(F3 +F14+F25)/3</f>
-        <v>5735137</v>
-      </c>
-      <c r="P3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1">
+        <f t="shared" si="2"/>
+        <v>3959877.6666666665</v>
+      </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1">
-        <f>(H3 +H14+H25)/3</f>
-        <v>3959877.6666666665</v>
-      </c>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19">
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
@@ -699,7 +739,7 @@
         <v>1000</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>6677059</v>
@@ -710,33 +750,30 @@
       <c r="H4" s="1">
         <v>3291124318</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="I4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>6683505</v>
+      </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1">
-        <f>(D4 +D15+D26)/3</f>
-        <v>6683505</v>
+        <f t="shared" si="1"/>
+        <v>5646687625.333333</v>
       </c>
       <c r="N4" s="1"/>
-      <c r="O4" s="1">
-        <f>(F4 +F15+F26)/3</f>
-        <v>5646687625.333333</v>
-      </c>
-      <c r="P4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <f t="shared" si="2"/>
+        <v>3291958230</v>
+      </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1">
-        <f>(H4 +H15+H26)/3</f>
-        <v>3291958230</v>
-      </c>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19">
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
@@ -744,7 +781,7 @@
         <v>2000</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>25049638</v>
@@ -755,33 +792,30 @@
       <c r="H5" s="1">
         <v>26112476281</v>
       </c>
-      <c r="J5">
-        <v>4</v>
+      <c r="I5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
       </c>
       <c r="K5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>25076344</v>
+      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1">
-        <f>(D5 +D16+D27)/3</f>
-        <v>25076344</v>
+        <f t="shared" si="1"/>
+        <v>46014070703.333336</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="1">
-        <f>(F5 +F16+F27)/3</f>
-        <v>46014070703.333336</v>
-      </c>
-      <c r="P5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <f t="shared" si="2"/>
+        <v>26142657905.333332</v>
+      </c>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1">
-        <f>(H5 +H16+H27)/3</f>
-        <v>26142657905.333332</v>
-      </c>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
@@ -789,7 +823,7 @@
         <v>3000</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>57297653</v>
@@ -800,33 +834,30 @@
       <c r="H6" s="1">
         <v>87785561090</v>
       </c>
-      <c r="J6">
-        <v>5</v>
+      <c r="I6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
       </c>
       <c r="K6" s="1">
-        <v>3000</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="1">
         <f>(D6 +D17+D28)/3</f>
         <v>57326178</v>
       </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>132789034689.33333</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1">
-        <f>(F6 +F17+F28)/3</f>
-        <v>132789034689.33333</v>
-      </c>
-      <c r="P6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>87749829838.333328</v>
+      </c>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1">
-        <f>(H6 +H17+H28)/3</f>
-        <v>87749829838.333328</v>
-      </c>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19">
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>6</v>
       </c>
@@ -834,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>2165</v>
@@ -845,33 +876,30 @@
       <c r="H7" s="1">
         <v>4540</v>
       </c>
-      <c r="J7">
-        <v>6</v>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
       </c>
       <c r="K7" s="1">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>2234.6666666666665</v>
+      </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="1">
-        <f>(D7 +D18+D29)/3</f>
-        <v>2234.6666666666665</v>
+        <f t="shared" si="1"/>
+        <v>4330.333333333333</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1">
-        <f>(F7 +F18+F29)/3</f>
-        <v>4330.333333333333</v>
-      </c>
-      <c r="P7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1">
+        <f t="shared" si="2"/>
+        <v>4873.333333333333</v>
+      </c>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1">
-        <f>(H7 +H18+H29)/3</f>
-        <v>4873.333333333333</v>
-      </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19">
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>7</v>
       </c>
@@ -879,7 +907,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>91566</v>
@@ -890,33 +918,30 @@
       <c r="H8" s="1">
         <v>3790807</v>
       </c>
-      <c r="J8">
-        <v>7</v>
+      <c r="I8" s="1">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
-      </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>92454.333333333328</v>
+      </c>
+      <c r="L8" s="1"/>
       <c r="M8" s="1">
-        <f>(D8 +D19+D30)/3</f>
-        <v>92454.333333333328</v>
+        <f t="shared" si="1"/>
+        <v>5739886.666666667</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1">
-        <f>(F8 +F19+F30)/3</f>
-        <v>5739886.666666667</v>
-      </c>
-      <c r="P8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1">
+        <f t="shared" si="2"/>
+        <v>3796348.6666666665</v>
+      </c>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1">
-        <f>(H8 +H19+H30)/3</f>
-        <v>3796348.6666666665</v>
-      </c>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19">
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>8</v>
       </c>
@@ -924,7 +949,7 @@
         <v>1000</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>7424256</v>
@@ -935,33 +960,30 @@
       <c r="H9" s="1">
         <v>3347988847</v>
       </c>
-      <c r="J9">
-        <v>8</v>
+      <c r="I9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
       </c>
       <c r="K9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>7393710.333333333</v>
+      </c>
+      <c r="L9" s="1"/>
       <c r="M9" s="1">
-        <f>(D9 +D20+D31)/3</f>
-        <v>7393710.333333333</v>
+        <f t="shared" si="1"/>
+        <v>5647188092.666667</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1">
-        <f>(F9 +F20+F31)/3</f>
-        <v>5647188092.666667</v>
-      </c>
-      <c r="P9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <f t="shared" si="2"/>
+        <v>3349118433.6666665</v>
+      </c>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1">
-        <f>(H9 +H20+H31)/3</f>
-        <v>3349118433.6666665</v>
-      </c>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19">
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>9</v>
       </c>
@@ -969,7 +991,7 @@
         <v>2000</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>31216346</v>
@@ -980,33 +1002,30 @@
       <c r="H10" s="1">
         <v>26349731544</v>
       </c>
-      <c r="J10">
-        <v>9</v>
+      <c r="I10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
       </c>
       <c r="K10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>31330496.666666668</v>
+      </c>
+      <c r="L10" s="1"/>
       <c r="M10" s="1">
-        <f>(D10 +D21+D32)/3</f>
-        <v>31330496.666666668</v>
+        <f t="shared" si="1"/>
+        <v>46015211500</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1">
-        <f>(F10 +F21+F32)/3</f>
-        <v>46015211500</v>
-      </c>
-      <c r="P10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
+        <f t="shared" si="2"/>
+        <v>26353850632.333332</v>
+      </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1">
-        <f>(H10 +H21+H32)/3</f>
-        <v>26353850632.333332</v>
-      </c>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19">
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1014,7 +1033,7 @@
         <v>3000</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>74038256</v>
@@ -1025,38 +1044,35 @@
       <c r="H11" s="1">
         <v>88439997705</v>
       </c>
-      <c r="J11">
-        <v>10</v>
+      <c r="I11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
       </c>
       <c r="K11" s="1">
-        <v>3000</v>
-      </c>
-      <c r="L11" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>74000520</v>
+      </c>
+      <c r="L11" s="1"/>
       <c r="M11" s="1">
-        <f>(D11 +D22+D33)/3</f>
-        <v>74000520</v>
+        <f t="shared" si="1"/>
+        <v>155290034868.33334</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1">
-        <f>(F11 +F22+F33)/3</f>
-        <v>155290034868.33334</v>
-      </c>
-      <c r="P11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
+        <f t="shared" si="2"/>
+        <v>88420507354.333328</v>
+      </c>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1">
-        <f>(H11 +H22+H33)/3</f>
-        <v>88420507354.333328</v>
-      </c>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19">
+    </row>
+    <row r="12" spans="1:17">
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1064,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
         <v>3073</v>
@@ -1076,7 +1092,7 @@
         <v>16274</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1084,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1">
         <v>99249</v>
@@ -1096,7 +1112,7 @@
         <v>3949774</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1104,7 +1120,7 @@
         <v>1000</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
         <v>6727627</v>
@@ -1116,7 +1132,7 @@
         <v>3290761589</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1124,7 +1140,7 @@
         <v>2000</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <v>25092527</v>
@@ -1144,7 +1160,7 @@
         <v>3000</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>57380779</v>
@@ -1164,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
         <v>2165</v>
@@ -1184,7 +1200,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>94091</v>
@@ -1204,7 +1220,7 @@
         <v>1000</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>7364678</v>
@@ -1224,7 +1240,7 @@
         <v>2000</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>31404720</v>
@@ -1244,7 +1260,7 @@
         <v>3000</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>74081498</v>
@@ -1258,7 +1274,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1269,7 +1285,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1">
         <v>2724</v>
@@ -1289,7 +1305,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1">
         <v>1082329</v>
@@ -1309,7 +1325,7 @@
         <v>1000</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1">
         <v>6645829</v>
@@ -1329,7 +1345,7 @@
         <v>2000</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1">
         <v>25086867</v>
@@ -1349,7 +1365,7 @@
         <v>3000</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="1">
         <v>57300102</v>
@@ -1369,7 +1385,7 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>2374</v>
@@ -1389,7 +1405,7 @@
         <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>91706</v>
@@ -1409,7 +1425,7 @@
         <v>1000</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
         <v>7392197</v>
@@ -1429,7 +1445,7 @@
         <v>2000</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>31370424</v>
@@ -1441,7 +1457,7 @@
         <v>26354081309</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>10</v>
       </c>
@@ -1449,7 +1465,7 @@
         <v>3000</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>73881806</v>
@@ -1461,39 +1477,36 @@
         <v>88378387980</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:16">
       <c r="B34" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>1</v>
-      </c>
-      <c r="L34" t="s">
         <v>5</v>
       </c>
       <c r="M34" t="s">
+        <v>7</v>
+      </c>
+      <c r="P34" t="s">
         <v>6</v>
       </c>
-      <c r="O34" t="s">
-        <v>8</v>
-      </c>
-      <c r="R34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1501,7 +1514,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1">
         <v>4505</v>
@@ -1512,32 +1525,29 @@
       <c r="H35" s="1">
         <v>17744</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>10</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" ref="K35:K44" si="3">(D35 +D46+D57)/3</f>
+        <v>4548.666666666667</v>
+      </c>
+      <c r="L35" s="1"/>
       <c r="M35" s="1">
-        <f>(D35 +D46+D57)/3</f>
-        <v>4548.666666666667</v>
+        <f t="shared" ref="M35:M44" si="4">(F35 +F46+F57)/3</f>
+        <v>29482</v>
       </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="1">
-        <f>(F35 +F46+F57)/3</f>
-        <v>29482</v>
-      </c>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1">
-        <f>(H35 +H46+H57)/3</f>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1">
+        <f t="shared" ref="P35:P44" si="5">(H35 +H46+H57)/3</f>
         <v>17774.333333333332</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1545,7 +1555,7 @@
         <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1">
         <v>294142</v>
@@ -1556,32 +1566,29 @@
       <c r="H36" s="1">
         <v>13721555</v>
       </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
-      <c r="K36">
+      <c r="I36">
         <v>100</v>
       </c>
-      <c r="L36" t="s">
-        <v>13</v>
-      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="3"/>
+        <v>292517</v>
+      </c>
+      <c r="L36" s="1"/>
       <c r="M36" s="1">
-        <f>(D36 +D47+D58)/3</f>
-        <v>292517</v>
+        <f t="shared" si="4"/>
+        <v>18712409.333333332</v>
       </c>
       <c r="N36" s="1"/>
-      <c r="O36" s="1">
-        <f>(F36 +F47+F58)/3</f>
-        <v>18712409.333333332</v>
-      </c>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1">
-        <f>(H36 +H47+H58)/3</f>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1">
+        <f t="shared" si="5"/>
         <v>13683222</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1589,7 +1596,7 @@
         <v>1000</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D37" s="1">
         <v>25984270</v>
@@ -1600,32 +1607,29 @@
       <c r="H37" s="1">
         <v>12309379583</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="I37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
       </c>
       <c r="K37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L37" t="s">
-        <v>14</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>26037221.333333332</v>
+      </c>
+      <c r="L37" s="1"/>
       <c r="M37" s="1">
-        <f>(D37 +D48+D59)/3</f>
-        <v>26037221.333333332</v>
+        <f t="shared" si="4"/>
+        <v>18731438793.666668</v>
       </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="1">
-        <f>(F37 +F48+F59)/3</f>
-        <v>18731438793.666668</v>
-      </c>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1">
-        <f>(H37 +H48+H59)/3</f>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1">
+        <f t="shared" si="5"/>
         <v>12266520131.666666</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>2000</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D38" s="1">
         <v>89057671</v>
@@ -1644,32 +1648,29 @@
       <c r="H38" s="1">
         <v>98000183031</v>
       </c>
-      <c r="J38">
-        <v>4</v>
+      <c r="I38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
       </c>
       <c r="K38" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L38" t="s">
-        <v>14</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>88766056</v>
+      </c>
+      <c r="L38" s="1"/>
       <c r="M38" s="1">
-        <f>(D38 +D49+D60)/3</f>
-        <v>88766056</v>
+        <f t="shared" si="4"/>
+        <v>149851761269</v>
       </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="1">
-        <f>(F38 +F49+F60)/3</f>
-        <v>149851761269</v>
-      </c>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1">
-        <f>(H38 +H49+H60)/3</f>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1">
+        <f t="shared" si="5"/>
         <v>98020582768.333328</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>3000</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1">
         <v>206686718</v>
@@ -1688,32 +1689,29 @@
       <c r="H39" s="1">
         <v>329229801357</v>
       </c>
-      <c r="J39">
-        <v>5</v>
+      <c r="I39" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
       </c>
       <c r="K39" s="1">
-        <v>3000</v>
-      </c>
-      <c r="L39" t="s">
-        <v>14</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>206439158.33333334</v>
+      </c>
+      <c r="L39" s="1"/>
       <c r="M39" s="1">
-        <f>(D39 +D50+D61)/3</f>
-        <v>206439158.33333334</v>
+        <f t="shared" si="4"/>
+        <v>505752686117.66669</v>
       </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="1">
-        <f>(F39 +F50+F61)/3</f>
-        <v>505752686117.66669</v>
-      </c>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1">
-        <f>(H39 +H50+H61)/3</f>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1">
+        <f t="shared" si="5"/>
         <v>329300428171</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>6</v>
       </c>
@@ -1721,7 +1719,7 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
         <v>3742</v>
@@ -1732,32 +1730,29 @@
       <c r="H40" s="1">
         <v>14431</v>
       </c>
-      <c r="J40">
-        <v>6</v>
+      <c r="I40" s="1">
+        <v>10</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
       </c>
       <c r="K40" s="1">
-        <v>10</v>
-      </c>
-      <c r="L40" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>3729.6666666666665</v>
+      </c>
+      <c r="L40" s="1"/>
       <c r="M40" s="1">
-        <f>(D40 +D51+D62)/3</f>
-        <v>3729.6666666666665</v>
+        <f t="shared" si="4"/>
+        <v>9576.6666666666661</v>
       </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="1">
-        <f>(F40 +F51+F62)/3</f>
-        <v>9576.6666666666661</v>
-      </c>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1">
-        <f>(H40 +H51+H62)/3</f>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1">
+        <f t="shared" si="5"/>
         <v>14450.333333333334</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>7</v>
       </c>
@@ -1765,7 +1760,7 @@
         <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1">
         <v>275063</v>
@@ -1776,32 +1771,29 @@
       <c r="H41" s="1">
         <v>13445277</v>
       </c>
-      <c r="J41">
-        <v>7</v>
+      <c r="I41" s="1">
+        <v>100</v>
+      </c>
+      <c r="J41" t="s">
+        <v>20</v>
       </c>
       <c r="K41" s="1">
-        <v>100</v>
-      </c>
-      <c r="L41" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>271135.66666666669</v>
+      </c>
+      <c r="L41" s="1"/>
       <c r="M41" s="1">
-        <f>(D41 +D52+D63)/3</f>
-        <v>271135.66666666669</v>
+        <f t="shared" si="4"/>
+        <v>18773238.333333332</v>
       </c>
       <c r="N41" s="1"/>
-      <c r="O41" s="1">
-        <f>(F41 +F52+F63)/3</f>
-        <v>18773238.333333332</v>
-      </c>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1">
-        <f>(H41 +H52+H63)/3</f>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1">
+        <f t="shared" si="5"/>
         <v>9429844</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>8</v>
       </c>
@@ -1809,7 +1801,7 @@
         <v>1000</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1">
         <v>27819456</v>
@@ -1820,32 +1812,29 @@
       <c r="H42" s="1">
         <v>12451282636</v>
       </c>
-      <c r="J42">
-        <v>8</v>
+      <c r="I42" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
       </c>
       <c r="K42" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L42" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>27727016.666666668</v>
+      </c>
+      <c r="L42" s="1"/>
       <c r="M42" s="1">
-        <f>(D42 +D53+D64)/3</f>
-        <v>27727016.666666668</v>
+        <f t="shared" si="4"/>
+        <v>18738074879.333332</v>
       </c>
       <c r="N42" s="1"/>
-      <c r="O42" s="1">
-        <f>(F42 +F53+F64)/3</f>
-        <v>18738074879.333332</v>
-      </c>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1">
-        <f>(H42 +H53+H64)/3</f>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1">
+        <f t="shared" si="5"/>
         <v>12423656798</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>9</v>
       </c>
@@ -1853,7 +1842,7 @@
         <v>2000</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
         <v>109682400</v>
@@ -1864,32 +1853,29 @@
       <c r="H43" s="1">
         <v>98883804386</v>
       </c>
-      <c r="J43">
-        <v>9</v>
+      <c r="I43" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J43" t="s">
+        <v>22</v>
       </c>
       <c r="K43" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L43" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>109442332.66666667</v>
+      </c>
+      <c r="L43" s="1"/>
       <c r="M43" s="1">
-        <f>(D43 +D54+D65)/3</f>
-        <v>109442332.66666667</v>
+        <f t="shared" si="4"/>
+        <v>149714907606.66666</v>
       </c>
       <c r="N43" s="1"/>
-      <c r="O43" s="1">
-        <f>(F43 +F54+F65)/3</f>
-        <v>149714907606.66666</v>
-      </c>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1">
-        <f>(H43 +H54+H65)/3</f>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1">
+        <f t="shared" si="5"/>
         <v>98700472176.333328</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>10</v>
       </c>
@@ -1897,7 +1883,7 @@
         <v>3000</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
         <v>244914202</v>
@@ -1908,37 +1894,34 @@
       <c r="H44" s="1">
         <v>331034191478</v>
       </c>
-      <c r="J44">
-        <v>10</v>
+      <c r="I44" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J44" t="s">
+        <v>23</v>
       </c>
       <c r="K44" s="1">
-        <v>3000</v>
-      </c>
-      <c r="L44" t="s">
-        <v>15</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>244304186.66666666</v>
+      </c>
+      <c r="L44" s="1"/>
       <c r="M44" s="1">
-        <f>(D44 +D55+D66)/3</f>
-        <v>244304186.66666666</v>
+        <f t="shared" si="4"/>
+        <v>506179936029.33331</v>
       </c>
       <c r="N44" s="1"/>
-      <c r="O44" s="1">
-        <f>(F44 +F55+F66)/3</f>
-        <v>506179936029.33331</v>
-      </c>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1">
-        <f>(H44 +H55+H66)/3</f>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1">
+        <f t="shared" si="5"/>
         <v>330914420556</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:16">
       <c r="B45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1946,7 +1929,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1">
         <v>4500</v>
@@ -1958,7 +1941,7 @@
         <v>17728</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1966,7 +1949,7 @@
         <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D47" s="1">
         <v>312757</v>
@@ -1978,7 +1961,7 @@
         <v>13680237</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1986,7 +1969,7 @@
         <v>1000</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="1">
         <v>26162064</v>
@@ -2006,7 +1989,7 @@
         <v>2000</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1">
         <v>88757404</v>
@@ -2026,7 +2009,7 @@
         <v>3000</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D50" s="1">
         <v>206798449</v>
@@ -2046,7 +2029,7 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
         <v>3638</v>
@@ -2066,7 +2049,7 @@
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1">
         <v>282001</v>
@@ -2086,7 +2069,7 @@
         <v>1000</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1">
         <v>27798889</v>
@@ -2106,7 +2089,7 @@
         <v>2000</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1">
         <v>109540520</v>
@@ -2126,7 +2109,7 @@
         <v>3000</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1">
         <v>244458087</v>
@@ -2140,7 +2123,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="B56" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2151,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D57" s="1">
         <v>4641</v>
@@ -2171,7 +2154,7 @@
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D58" s="1">
         <v>270652</v>
@@ -2191,7 +2174,7 @@
         <v>1000</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1">
         <v>25965330</v>
@@ -2211,7 +2194,7 @@
         <v>2000</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D60" s="1">
         <v>88483093</v>
@@ -2231,7 +2214,7 @@
         <v>3000</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D61" s="1">
         <v>205832308</v>
@@ -2251,7 +2234,7 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1">
         <v>3809</v>
@@ -2271,7 +2254,7 @@
         <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1">
         <v>256343</v>
@@ -2291,7 +2274,7 @@
         <v>1000</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1">
         <v>27562705</v>
@@ -2311,7 +2294,7 @@
         <v>2000</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1">
         <v>109104078</v>
@@ -2331,7 +2314,7 @@
         <v>3000</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1">
         <v>243540271</v>
@@ -2345,7 +2328,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:8">
